--- a/APM files/128912062/128912062 IMPORT 4 remove Stop-Sell.xlsx
+++ b/APM files/128912062/128912062 IMPORT 4 remove Stop-Sell.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128912062\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EBB20-9EE9-480C-BF1C-67F3F48E443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11205" yWindow="3825" windowWidth="23190" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="5">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,47 +405,2279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>117891</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>794338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1287452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2236824</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3919952</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6610041</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6610125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6619684</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6619700</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6631782</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7235810</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8234665</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8236443</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8238216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>8239426</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>8239914</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>8240348</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>8240357</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8240387</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>9446165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>9673405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>9830211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>10020466</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>10023170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>10069896</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>10069988</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>11668590</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>11703248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>11730680</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>11731094</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>12333938</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>12384140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>12392147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>12433009</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>12959879</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>16076676</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>16076693</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>16076716</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>16076770</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>16076827</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>16077494</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>16077520</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>16077664</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>17818867</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>27128201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>35786001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46234428</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46234561</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46255012</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>46255073</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>46255140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>46952567</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>46952720</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>49104954</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>49105326</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>49105518</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>49105775</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>49106092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>49106283</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>49106458</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>49107485</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>57154834</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>59834226</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>63905077</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>71919921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>75717301</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>78208642</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>78302275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>78324945</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>78394455</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>78395250</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>78421278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>78500120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>78526224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>78564771</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>78568821</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>78573161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78597063</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79863461</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>81195827</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81549314</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>81550970</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>81562454</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>81737043</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85532521</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>85535004</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>85537558</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>85538165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>85538434</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>86290911</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>86479162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>86543430</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>86556488</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>86557969</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>86573267</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>86601991</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>86646011</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>86670155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>87012366</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>87198943</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>87199253</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>87199858</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>87200034</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>87238178</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>87248558</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>87259906</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>87268809</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>87365104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>87367349</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>87691286</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>87716005</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>87733608</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>87736552</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>87738127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>88051071</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>88492658</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>88495092</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>88611116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>88612065</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>88612427</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>88631189</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>88632086</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>90946653</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>91579381</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>91632096</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>92006757</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>92030553</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>92151640</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>92153637</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>92154005</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>92181029</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>92977886</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>93058552</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>93058589</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>93234597</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>93234990</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>93235038</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>93418660</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>93545609</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>94421503</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>94719806</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>94906378</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>95322816</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>95324140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>95326684</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>95706535</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>95854432</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>95874253</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>96378711</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>96471068</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>96493194</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>96497501</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>96668533</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>96902041</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>97085563</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>97085887</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>97094762</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>97095329</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>97095470</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>97095988</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>98525840</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>98530108</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>99041040</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>99045538</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>99101266</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>99144697</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>99303967</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>99304998</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>99305440</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>99425737</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>99426306</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>99440840</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>99448666</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>99489688</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>99489886</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>99509410</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>99657776</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>99665457</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>99914711</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>100186644</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>100194140</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>100304573</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>100410901</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>100453573</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>100454418</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>100455908</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>100529255</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>100532996</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>100746977</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>100760759</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>100767275</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>100767783</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>100832535</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>100920966</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>100956874</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>101038055</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>101066749</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>101263807</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>101468699</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>102110054</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>102360398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>103493934</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>103597652</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>105602197</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>105632364</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
